--- a/forms/Form-3AR.xlsx
+++ b/forms/Form-3AR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9BCED5-B84D-4920-822B-D35DF32E1E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E81925A-CCDA-4FFA-ACA2-018207485220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8Gww/CyiZjZyuoEX08bBwyX8h4QG9mI1LKaDU5V5gDTYahR0mnGDBtDHoiqZDEl0cYQvSJmJUb5nithzDkyPvg==" workbookSaltValue="Qa0prnoMa4W+ZTth7Dg/lA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -748,6 +748,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -809,9 +812,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1147,24 +1147,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="74"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="77"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -1214,15 +1214,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="70"/>
+      <c r="D8" s="71"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="70"/>
+      <c r="G8" s="71"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="86" t="s">
+      <c r="F19" s="67" t="s">
         <v>39</v>
       </c>
       <c r="G19" s="37"/>
@@ -1391,10 +1391,10 @@
       <c r="C24" s="12"/>
       <c r="D24" s="15"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="70" t="s">
+      <c r="F24" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="70"/>
+      <c r="G24" s="71"/>
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -1522,11 +1522,11 @@
     </row>
     <row r="36" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="69"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="70"/>
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1608,188 +1608,188 @@
       <c r="G1" s="33"/>
     </row>
     <row r="2" spans="2:57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="72"/>
-      <c r="AH2" s="72"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="72"/>
-      <c r="AO2" s="72"/>
-      <c r="AP2" s="72"/>
-      <c r="AQ2" s="72"/>
-      <c r="AR2" s="72"/>
-      <c r="AS2" s="72"/>
-      <c r="AT2" s="72"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="72"/>
-      <c r="AW2" s="72"/>
-      <c r="AX2" s="72"/>
-      <c r="AY2" s="72"/>
-      <c r="AZ2" s="72"/>
-      <c r="BA2" s="72"/>
-      <c r="BB2" s="72"/>
-      <c r="BC2" s="72"/>
-      <c r="BD2" s="72"/>
-      <c r="BE2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="73"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="73"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="73"/>
+      <c r="AV2" s="73"/>
+      <c r="AW2" s="73"/>
+      <c r="AX2" s="73"/>
+      <c r="AY2" s="73"/>
+      <c r="AZ2" s="73"/>
+      <c r="BA2" s="73"/>
+      <c r="BB2" s="73"/>
+      <c r="BC2" s="73"/>
+      <c r="BD2" s="73"/>
+      <c r="BE2" s="74"/>
     </row>
     <row r="3" spans="2:57" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="74"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="75"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
-      <c r="T3" s="75"/>
-      <c r="U3" s="75"/>
-      <c r="V3" s="75"/>
-      <c r="W3" s="75"/>
-      <c r="X3" s="75"/>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="75"/>
-      <c r="AA3" s="75"/>
-      <c r="AB3" s="75"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="75"/>
-      <c r="AI3" s="75"/>
-      <c r="AJ3" s="75"/>
-      <c r="AK3" s="75"/>
-      <c r="AL3" s="75"/>
-      <c r="AM3" s="75"/>
-      <c r="AN3" s="75"/>
-      <c r="AO3" s="75"/>
-      <c r="AP3" s="75"/>
-      <c r="AQ3" s="75"/>
-      <c r="AR3" s="75"/>
-      <c r="AS3" s="75"/>
-      <c r="AT3" s="75"/>
-      <c r="AU3" s="75"/>
-      <c r="AV3" s="75"/>
-      <c r="AW3" s="75"/>
-      <c r="AX3" s="75"/>
-      <c r="AY3" s="75"/>
-      <c r="AZ3" s="75"/>
-      <c r="BA3" s="75"/>
-      <c r="BB3" s="75"/>
-      <c r="BC3" s="75"/>
-      <c r="BD3" s="75"/>
-      <c r="BE3" s="76"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="76"/>
+      <c r="AJ3" s="76"/>
+      <c r="AK3" s="76"/>
+      <c r="AL3" s="76"/>
+      <c r="AM3" s="76"/>
+      <c r="AN3" s="76"/>
+      <c r="AO3" s="76"/>
+      <c r="AP3" s="76"/>
+      <c r="AQ3" s="76"/>
+      <c r="AR3" s="76"/>
+      <c r="AS3" s="76"/>
+      <c r="AT3" s="76"/>
+      <c r="AU3" s="76"/>
+      <c r="AV3" s="76"/>
+      <c r="AW3" s="76"/>
+      <c r="AX3" s="76"/>
+      <c r="AY3" s="76"/>
+      <c r="AZ3" s="76"/>
+      <c r="BA3" s="76"/>
+      <c r="BB3" s="76"/>
+      <c r="BC3" s="76"/>
+      <c r="BD3" s="76"/>
+      <c r="BE3" s="77"/>
     </row>
     <row r="4" spans="2:57" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="77" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="83" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="84"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="84"/>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="84"/>
-      <c r="AI4" s="84"/>
-      <c r="AJ4" s="84"/>
-      <c r="AK4" s="84"/>
-      <c r="AL4" s="84"/>
-      <c r="AM4" s="84"/>
-      <c r="AN4" s="84"/>
-      <c r="AO4" s="84"/>
-      <c r="AP4" s="84"/>
-      <c r="AQ4" s="84"/>
-      <c r="AR4" s="84"/>
-      <c r="AS4" s="84"/>
-      <c r="AT4" s="84"/>
-      <c r="AU4" s="84"/>
-      <c r="AV4" s="84"/>
-      <c r="AW4" s="84"/>
-      <c r="AX4" s="84"/>
-      <c r="AY4" s="84"/>
-      <c r="AZ4" s="84"/>
-      <c r="BA4" s="84"/>
-      <c r="BB4" s="84"/>
-      <c r="BC4" s="84"/>
-      <c r="BD4" s="84"/>
-      <c r="BE4" s="85"/>
-    </row>
-    <row r="5" spans="2:57" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="85"/>
+      <c r="AE4" s="85"/>
+      <c r="AF4" s="85"/>
+      <c r="AG4" s="85"/>
+      <c r="AH4" s="85"/>
+      <c r="AI4" s="85"/>
+      <c r="AJ4" s="85"/>
+      <c r="AK4" s="85"/>
+      <c r="AL4" s="85"/>
+      <c r="AM4" s="85"/>
+      <c r="AN4" s="85"/>
+      <c r="AO4" s="85"/>
+      <c r="AP4" s="85"/>
+      <c r="AQ4" s="85"/>
+      <c r="AR4" s="85"/>
+      <c r="AS4" s="85"/>
+      <c r="AT4" s="85"/>
+      <c r="AU4" s="85"/>
+      <c r="AV4" s="85"/>
+      <c r="AW4" s="85"/>
+      <c r="AX4" s="85"/>
+      <c r="AY4" s="85"/>
+      <c r="AZ4" s="85"/>
+      <c r="BA4" s="85"/>
+      <c r="BB4" s="85"/>
+      <c r="BC4" s="85"/>
+      <c r="BD4" s="85"/>
+      <c r="BE4" s="86"/>
+    </row>
+    <row r="5" spans="2:57" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="56" t="s">
         <v>12</v>
       </c>
@@ -4760,7 +4760,7 @@
       <c r="BE55" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="896naIbaOzwj4yWb7GFBmEKbDb0G+jsK62wc8qq/1Uqg43XUJrloBCeXllR3uyP8PCWYosTSFzjvDjORldsu6w==" saltValue="rya421mKVWPP94hXEXaPyw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="v+Pf4TxCx/E93uyhYXssU7bjU2tcDLHLhquK/AIkW4VAVQycO93X0VjhXZ2WUj9tuHbJlHqNTRo1pCAOD1fq0A==" saltValue="4eLWwGH8F127eCXSa188+g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="B2:BE3"/>
     <mergeCell ref="E4:G4"/>

--- a/forms/Form-3AR.xlsx
+++ b/forms/Form-3AR.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2CF761-EBD1-43BE-B5CE-2F5230FED613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C4DFAA-BC1D-41FB-8FA2-BF786B8399B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8Gww/CyiZjZyuoEX08bBwyX8h4QG9mI1LKaDU5V5gDTYahR0mnGDBtDHoiqZDEl0cYQvSJmJUb5nithzDkyPvg==" workbookSaltValue="Qa0prnoMa4W+ZTth7Dg/lA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -744,6 +744,20 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -794,20 +808,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -826,7 +826,15 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1138,7 +1146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D41B5-AC8B-4133-9C08-EAF515BF72F5}">
   <dimension ref="B1:H38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1154,24 +1162,24 @@
   <sheetData>
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="71"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
@@ -1221,15 +1229,15 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="61"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="61"/>
+      <c r="G8" s="65"/>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1398,10 +1406,10 @@
       <c r="C24" s="12"/>
       <c r="D24" s="15"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="61" t="s">
+      <c r="F24" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="61"/>
+      <c r="G24" s="65"/>
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -1529,11 +1537,11 @@
     </row>
     <row r="36" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="60"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="64"/>
       <c r="H36" s="11"/>
     </row>
     <row r="37" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1587,7 +1595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C098252-FABC-4161-882E-794F98E79BC6}">
   <dimension ref="A1:DC55"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane xSplit="7" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -1615,234 +1623,234 @@
       <c r="G1" s="30"/>
     </row>
     <row r="2" spans="2:107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="63"/>
-      <c r="AQ2" s="63"/>
-      <c r="AR2" s="63"/>
-      <c r="AS2" s="63"/>
-      <c r="AT2" s="63"/>
-      <c r="AU2" s="63"/>
-      <c r="AV2" s="63"/>
-      <c r="AW2" s="63"/>
-      <c r="AX2" s="63"/>
-      <c r="AY2" s="63"/>
-      <c r="AZ2" s="63"/>
-      <c r="BA2" s="63"/>
-      <c r="BB2" s="63"/>
-      <c r="BC2" s="63"/>
-      <c r="BD2" s="63"/>
-      <c r="BE2" s="63"/>
-      <c r="BF2" s="63"/>
-      <c r="BG2" s="63"/>
-      <c r="BH2" s="63"/>
-      <c r="BI2" s="63"/>
-      <c r="BJ2" s="63"/>
-      <c r="BK2" s="63"/>
-      <c r="BL2" s="63"/>
-      <c r="BM2" s="63"/>
-      <c r="BN2" s="63"/>
-      <c r="BO2" s="63"/>
-      <c r="BP2" s="63"/>
-      <c r="BQ2" s="63"/>
-      <c r="BR2" s="63"/>
-      <c r="BS2" s="63"/>
-      <c r="BT2" s="63"/>
-      <c r="BU2" s="63"/>
-      <c r="BV2" s="63"/>
-      <c r="BW2" s="63"/>
-      <c r="BX2" s="63"/>
-      <c r="BY2" s="63"/>
-      <c r="BZ2" s="63"/>
-      <c r="CA2" s="63"/>
-      <c r="CB2" s="63"/>
-      <c r="CC2" s="63"/>
-      <c r="CD2" s="63"/>
-      <c r="CE2" s="63"/>
-      <c r="CF2" s="63"/>
-      <c r="CG2" s="63"/>
-      <c r="CH2" s="63"/>
-      <c r="CI2" s="63"/>
-      <c r="CJ2" s="63"/>
-      <c r="CK2" s="63"/>
-      <c r="CL2" s="63"/>
-      <c r="CM2" s="63"/>
-      <c r="CN2" s="63"/>
-      <c r="CO2" s="63"/>
-      <c r="CP2" s="63"/>
-      <c r="CQ2" s="63"/>
-      <c r="CR2" s="63"/>
-      <c r="CS2" s="63"/>
-      <c r="CT2" s="63"/>
-      <c r="CU2" s="63"/>
-      <c r="CV2" s="63"/>
-      <c r="CW2" s="63"/>
-      <c r="CX2" s="63"/>
-      <c r="CY2" s="63"/>
-      <c r="CZ2" s="63"/>
-      <c r="DA2" s="63"/>
-      <c r="DB2" s="63"/>
-      <c r="DC2" s="64"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="67"/>
+      <c r="AP2" s="67"/>
+      <c r="AQ2" s="67"/>
+      <c r="AR2" s="67"/>
+      <c r="AS2" s="67"/>
+      <c r="AT2" s="67"/>
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
+      <c r="BA2" s="67"/>
+      <c r="BB2" s="67"/>
+      <c r="BC2" s="67"/>
+      <c r="BD2" s="67"/>
+      <c r="BE2" s="67"/>
+      <c r="BF2" s="67"/>
+      <c r="BG2" s="67"/>
+      <c r="BH2" s="67"/>
+      <c r="BI2" s="67"/>
+      <c r="BJ2" s="67"/>
+      <c r="BK2" s="67"/>
+      <c r="BL2" s="67"/>
+      <c r="BM2" s="67"/>
+      <c r="BN2" s="67"/>
+      <c r="BO2" s="67"/>
+      <c r="BP2" s="67"/>
+      <c r="BQ2" s="67"/>
+      <c r="BR2" s="67"/>
+      <c r="BS2" s="67"/>
+      <c r="BT2" s="67"/>
+      <c r="BU2" s="67"/>
+      <c r="BV2" s="67"/>
+      <c r="BW2" s="67"/>
+      <c r="BX2" s="67"/>
+      <c r="BY2" s="67"/>
+      <c r="BZ2" s="67"/>
+      <c r="CA2" s="67"/>
+      <c r="CB2" s="67"/>
+      <c r="CC2" s="67"/>
+      <c r="CD2" s="67"/>
+      <c r="CE2" s="67"/>
+      <c r="CF2" s="67"/>
+      <c r="CG2" s="67"/>
+      <c r="CH2" s="67"/>
+      <c r="CI2" s="67"/>
+      <c r="CJ2" s="67"/>
+      <c r="CK2" s="67"/>
+      <c r="CL2" s="67"/>
+      <c r="CM2" s="67"/>
+      <c r="CN2" s="67"/>
+      <c r="CO2" s="67"/>
+      <c r="CP2" s="67"/>
+      <c r="CQ2" s="67"/>
+      <c r="CR2" s="67"/>
+      <c r="CS2" s="67"/>
+      <c r="CT2" s="67"/>
+      <c r="CU2" s="67"/>
+      <c r="CV2" s="67"/>
+      <c r="CW2" s="67"/>
+      <c r="CX2" s="67"/>
+      <c r="CY2" s="67"/>
+      <c r="CZ2" s="67"/>
+      <c r="DA2" s="67"/>
+      <c r="DB2" s="67"/>
+      <c r="DC2" s="68"/>
     </row>
     <row r="3" spans="2:107" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="66"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="66"/>
-      <c r="AT3" s="66"/>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="66"/>
-      <c r="AZ3" s="66"/>
-      <c r="BA3" s="66"/>
-      <c r="BB3" s="66"/>
-      <c r="BC3" s="66"/>
-      <c r="BD3" s="66"/>
-      <c r="BE3" s="66"/>
-      <c r="BF3" s="66"/>
-      <c r="BG3" s="66"/>
-      <c r="BH3" s="66"/>
-      <c r="BI3" s="66"/>
-      <c r="BJ3" s="66"/>
-      <c r="BK3" s="66"/>
-      <c r="BL3" s="66"/>
-      <c r="BM3" s="66"/>
-      <c r="BN3" s="66"/>
-      <c r="BO3" s="66"/>
-      <c r="BP3" s="66"/>
-      <c r="BQ3" s="66"/>
-      <c r="BR3" s="66"/>
-      <c r="BS3" s="66"/>
-      <c r="BT3" s="66"/>
-      <c r="BU3" s="66"/>
-      <c r="BV3" s="66"/>
-      <c r="BW3" s="66"/>
-      <c r="BX3" s="66"/>
-      <c r="BY3" s="66"/>
-      <c r="BZ3" s="66"/>
-      <c r="CA3" s="66"/>
-      <c r="CB3" s="66"/>
-      <c r="CC3" s="66"/>
-      <c r="CD3" s="66"/>
-      <c r="CE3" s="66"/>
-      <c r="CF3" s="66"/>
-      <c r="CG3" s="66"/>
-      <c r="CH3" s="66"/>
-      <c r="CI3" s="66"/>
-      <c r="CJ3" s="66"/>
-      <c r="CK3" s="66"/>
-      <c r="CL3" s="66"/>
-      <c r="CM3" s="66"/>
-      <c r="CN3" s="66"/>
-      <c r="CO3" s="66"/>
-      <c r="CP3" s="66"/>
-      <c r="CQ3" s="66"/>
-      <c r="CR3" s="66"/>
-      <c r="CS3" s="66"/>
-      <c r="CT3" s="66"/>
-      <c r="CU3" s="66"/>
-      <c r="CV3" s="66"/>
-      <c r="CW3" s="66"/>
-      <c r="CX3" s="66"/>
-      <c r="CY3" s="66"/>
-      <c r="CZ3" s="66"/>
-      <c r="DA3" s="66"/>
-      <c r="DB3" s="66"/>
-      <c r="DC3" s="67"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="70"/>
+      <c r="AI3" s="70"/>
+      <c r="AJ3" s="70"/>
+      <c r="AK3" s="70"/>
+      <c r="AL3" s="70"/>
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
+      <c r="AO3" s="70"/>
+      <c r="AP3" s="70"/>
+      <c r="AQ3" s="70"/>
+      <c r="AR3" s="70"/>
+      <c r="AS3" s="70"/>
+      <c r="AT3" s="70"/>
+      <c r="AU3" s="70"/>
+      <c r="AV3" s="70"/>
+      <c r="AW3" s="70"/>
+      <c r="AX3" s="70"/>
+      <c r="AY3" s="70"/>
+      <c r="AZ3" s="70"/>
+      <c r="BA3" s="70"/>
+      <c r="BB3" s="70"/>
+      <c r="BC3" s="70"/>
+      <c r="BD3" s="70"/>
+      <c r="BE3" s="70"/>
+      <c r="BF3" s="70"/>
+      <c r="BG3" s="70"/>
+      <c r="BH3" s="70"/>
+      <c r="BI3" s="70"/>
+      <c r="BJ3" s="70"/>
+      <c r="BK3" s="70"/>
+      <c r="BL3" s="70"/>
+      <c r="BM3" s="70"/>
+      <c r="BN3" s="70"/>
+      <c r="BO3" s="70"/>
+      <c r="BP3" s="70"/>
+      <c r="BQ3" s="70"/>
+      <c r="BR3" s="70"/>
+      <c r="BS3" s="70"/>
+      <c r="BT3" s="70"/>
+      <c r="BU3" s="70"/>
+      <c r="BV3" s="70"/>
+      <c r="BW3" s="70"/>
+      <c r="BX3" s="70"/>
+      <c r="BY3" s="70"/>
+      <c r="BZ3" s="70"/>
+      <c r="CA3" s="70"/>
+      <c r="CB3" s="70"/>
+      <c r="CC3" s="70"/>
+      <c r="CD3" s="70"/>
+      <c r="CE3" s="70"/>
+      <c r="CF3" s="70"/>
+      <c r="CG3" s="70"/>
+      <c r="CH3" s="70"/>
+      <c r="CI3" s="70"/>
+      <c r="CJ3" s="70"/>
+      <c r="CK3" s="70"/>
+      <c r="CL3" s="70"/>
+      <c r="CM3" s="70"/>
+      <c r="CN3" s="70"/>
+      <c r="CO3" s="70"/>
+      <c r="CP3" s="70"/>
+      <c r="CQ3" s="70"/>
+      <c r="CR3" s="70"/>
+      <c r="CS3" s="70"/>
+      <c r="CT3" s="70"/>
+      <c r="CU3" s="70"/>
+      <c r="CV3" s="70"/>
+      <c r="CW3" s="70"/>
+      <c r="CX3" s="70"/>
+      <c r="CY3" s="70"/>
+      <c r="CZ3" s="70"/>
+      <c r="DA3" s="70"/>
+      <c r="DB3" s="70"/>
+      <c r="DC3" s="71"/>
     </row>
     <row r="4" spans="2:107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="78" t="s">
         <v>32</v>
       </c>
@@ -1947,16 +1955,16 @@
       <c r="DC4" s="80"/>
     </row>
     <row r="5" spans="2:107" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="59" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="47" t="s">
@@ -2567,13 +2575,18 @@
       <c r="G55" s="32"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oA6vdSH9LdPMiGDylMnU9q3A7HTt1GAwlkJB1VPOQx86f0cQ6rQ94QGvxnH+lgS27wJcREVmDj7/Y9b41NRlEQ==" saltValue="E1RMJ36SnXKvBwELy1Tj/w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aG+1QFvz3BqqLJPd9Q0g8OWCpMfZ4HrZ3oIMe/RhUD223PNRcPXu52a2QyDhjXPgUpl0v38HIKmEEC+mF0+g/A==" saltValue="R3THqWtRgNMMHgwt3/ATTQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="B2:DC3"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="H4:DC4"/>
   </mergeCells>
+  <conditionalFormatting sqref="B6:DC1048576">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>B6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:D5 H4:DC4" xr:uid="{835ADA2E-2153-40B1-918E-DD3302A4A478}">
       <formula1>"&lt;0&gt;0"</formula1>

--- a/forms/Form-3AR.xlsx
+++ b/forms/Form-3AR.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C4DFAA-BC1D-41FB-8FA2-BF786B8399B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0528E3D6-2C26-4FD9-BE57-FC4F2C3DF309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8Gww/CyiZjZyuoEX08bBwyX8h4QG9mI1LKaDU5V5gDTYahR0mnGDBtDHoiqZDEl0cYQvSJmJUb5nithzDkyPvg==" workbookSaltValue="Qa0prnoMa4W+ZTth7Dg/lA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -1595,7 +1595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C098252-FABC-4161-882E-794F98E79BC6}">
   <dimension ref="A1:DC55"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="7" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>

--- a/forms/Form-3AR.xlsx
+++ b/forms/Form-3AR.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git\bitbucket_workspaces\IOTC-ws\R libs\workflow\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0528E3D6-2C26-4FD9-BE57-FC4F2C3DF309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D3532C-67CE-4D39-A494-AF6C10EFCFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="8Gww/CyiZjZyuoEX08bBwyX8h4QG9mI1LKaDU5V5gDTYahR0mnGDBtDHoiqZDEl0cYQvSJmJUb5nithzDkyPvg==" workbookSaltValue="Qa0prnoMa4W+ZTth7Dg/lA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -1146,7 +1146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D41B5-AC8B-4133-9C08-EAF515BF72F5}">
   <dimension ref="B1:H38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
